--- a/docs/Mapping/InstitutionCharges.xlsx
+++ b/docs/Mapping/InstitutionCharges.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Code\python\Book\Mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SnowflakeEnriched\docs\Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60FE6E6F-C020-4DDE-9B55-912D16AFA759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E081F7-E1A9-4294-AC7D-B9BD340FE113}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{AB967FAB-1F2D-4960-BA37-6CEE31A5434A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="377">
   <si>
     <t>Transformed Entity</t>
   </si>
@@ -52,9 +52,6 @@
   </si>
   <si>
     <t>UNITID</t>
-  </si>
-  <si>
-    <t>Snowflake transformation</t>
   </si>
   <si>
     <t>Snowflake extract load - Entity mapping</t>
@@ -412,9 +409,6 @@
     <t>Optometry_OutOfStateRequiredFees</t>
   </si>
   <si>
-    <t>Normalize data</t>
-  </si>
-  <si>
     <t xml:space="preserve">ISPROF5	</t>
   </si>
   <si>
@@ -424,9 +418,6 @@
     <t>OsteopathicMedicine_InStateTuition</t>
   </si>
   <si>
-    <t>- ChargeByAcademicBranch</t>
-  </si>
-  <si>
     <t xml:space="preserve">ISPFEE5	</t>
   </si>
   <si>
@@ -778,9 +769,6 @@
     <t>PublishedInStateTuitionFeesYear1</t>
   </si>
   <si>
-    <t xml:space="preserve"> - ChargeByPublication</t>
-  </si>
-  <si>
     <t xml:space="preserve">CHG2AT2	</t>
   </si>
   <si>
@@ -1085,9 +1073,6 @@
   </si>
   <si>
     <t>OnCampusOtherExpensesYear3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -ChargeByCategory</t>
   </si>
   <si>
     <t xml:space="preserve">CHG7AY0	</t>
@@ -1271,23 +1256,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1318,15 +1292,6 @@
       <left style="thick">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
       <right style="thick">
         <color auto="1"/>
       </right>
@@ -1340,17 +1305,6 @@
         <color auto="1"/>
       </right>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -1413,101 +1367,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="18" fontId="1" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="18" fontId="1" fillId="3" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thick">
-          <color auto="1"/>
-        </left>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1573,6 +1497,14 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thick">
           <color auto="1"/>
@@ -1624,12 +1556,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A324E624-5D06-4553-8A7E-276CBF441EB9}" name="Table25" displayName="Table25" ref="B3:E124" totalsRowShown="0" headerRowDxfId="7" dataDxfId="0" headerRowBorderDxfId="6" tableBorderDxfId="5" headerRowCellStyle="20% - Accent1" dataCellStyle="20% - Accent1">
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8C23D671-CBAC-44B9-9F3D-E58916FCCE73}" name="CSV file column Identifier" dataDxfId="4" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="2" xr3:uid="{AA993C28-055B-495A-B10C-BD526D9FE60F}" name="Snowflake  staged  column identifier ID" dataDxfId="3" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="3" xr3:uid="{73567523-E37F-413C-8168-FA5A4F6BE855}" name="Snowflake extract load - Entity mapping" dataDxfId="2" dataCellStyle="20% - Accent1"/>
-    <tableColumn id="4" xr3:uid="{36C74BD4-C541-4B5E-A2DC-3ABC001120DD}" name="Snowflake transformation" dataDxfId="1" dataCellStyle="20% - Accent1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A324E624-5D06-4553-8A7E-276CBF441EB9}" name="Table25" displayName="Table25" ref="B3:D124" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3" headerRowCellStyle="20% - Accent1" dataCellStyle="20% - Accent1">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8C23D671-CBAC-44B9-9F3D-E58916FCCE73}" name="CSV file column Identifier" dataDxfId="2" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="2" xr3:uid="{AA993C28-055B-495A-B10C-BD526D9FE60F}" name="Snowflake  staged  column identifier ID" dataDxfId="1" dataCellStyle="20% - Accent1"/>
+    <tableColumn id="3" xr3:uid="{73567523-E37F-413C-8168-FA5A4F6BE855}" name="Snowflake extract load - Entity mapping" dataDxfId="0" dataCellStyle="20% - Accent1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1932,10 +1863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6907E2C4-0310-433F-AF41-FD7340198B4A}">
-  <dimension ref="B2:H125"/>
+  <dimension ref="B2:G125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:E124"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -1944,1552 +1875,1415 @@
     <col min="2" max="2" width="13.3671875" customWidth="1"/>
     <col min="3" max="3" width="17.578125" customWidth="1"/>
     <col min="4" max="4" width="52.3125" customWidth="1"/>
-    <col min="5" max="5" width="22.734375" customWidth="1"/>
-    <col min="7" max="7" width="16.15625" customWidth="1"/>
-    <col min="8" max="8" width="31.1015625" customWidth="1"/>
+    <col min="6" max="6" width="16.15625" customWidth="1"/>
+    <col min="7" max="7" width="31.1015625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
-    <row r="3" spans="2:8" ht="29.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6"/>
+    <row r="3" spans="2:7" ht="29.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B4" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="D4" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="19"/>
+    </row>
+    <row r="5" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="G4" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="13"/>
-    </row>
-    <row r="5" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B5" s="18" t="s">
+      <c r="C5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="D5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="F5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="21"/>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="15" t="s">
+    </row>
+    <row r="6" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="D6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+    </row>
+    <row r="7" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B7" s="18" t="s">
+      <c r="C7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="D7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="F7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="16" t="s">
+    </row>
+    <row r="8" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B8" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="18" t="s">
+      <c r="C8" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="D8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="22"/>
+    </row>
+    <row r="9" spans="2:7" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="16"/>
-    </row>
-    <row r="9" spans="2:8" ht="15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B9" s="18" t="s">
+      <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="D9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="F9" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="G9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="H9" s="17" t="s">
+    </row>
+    <row r="10" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B10" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="18" t="s">
+      <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C10" s="19" t="s">
+      <c r="D10" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="F10" s="20"/>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="18" t="s">
+      <c r="C11" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="D11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="F11" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="G11" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4" t="s">
+    </row>
+    <row r="12" spans="2:7" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B12" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="18" t="s">
+      <c r="C12" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="D12" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="F12" s="9"/>
+      <c r="G12" s="11"/>
+    </row>
+    <row r="13" spans="2:7" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="21"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="5"/>
-    </row>
-    <row r="13" spans="2:8" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="18" t="s">
+      <c r="C13" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="19" t="s">
+      <c r="D13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="F13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="G13" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="G13" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="9" t="s">
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B14" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="18" t="s">
+      <c r="C14" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="D14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="F14" s="13"/>
+      <c r="G14" s="16"/>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="21"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="18" t="s">
+      <c r="C15" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="D15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="F15" s="13"/>
+      <c r="G15" s="16"/>
+    </row>
+    <row r="16" spans="2:7" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="21"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" spans="2:8" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="18" t="s">
+      <c r="C16" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="D16" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="F16" s="14"/>
+      <c r="G16" s="17"/>
+    </row>
+    <row r="17" spans="2:4" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B17" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17" spans="2:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="18" t="s">
+      <c r="C17" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C17" s="22" t="s">
+      <c r="D17" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="20" t="s">
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B18" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="21"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="18" t="s">
+      <c r="C18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="D18" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D18" s="20" t="s">
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E18" s="21"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="18" t="s">
+      <c r="C19" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="D19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="20" t="s">
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E19" s="21"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="18" t="s">
+      <c r="C20" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="D20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="D20" s="20" t="s">
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E20" s="21"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="18" t="s">
+      <c r="C21" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="D21" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D21" s="20" t="s">
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="21"/>
-    </row>
-    <row r="22" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B22" s="18" t="s">
+      <c r="C22" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="D22" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="20" t="s">
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="E22" s="21"/>
-    </row>
-    <row r="23" spans="2:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="18" t="s">
+      <c r="C23" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="D23" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="20" t="s">
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="E23" s="23"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="18" t="s">
+      <c r="C24" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="D24" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D24" s="20" t="s">
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E24" s="24"/>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="18" t="s">
+      <c r="C25" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="D25" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="20" t="s">
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="E25" s="25"/>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="18" t="s">
+      <c r="C26" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="D26" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D26" s="20" t="s">
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E26" s="25"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="18" t="s">
+      <c r="C27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="22" t="s">
+      <c r="D27" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="D27" s="20" t="s">
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B28" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E27" s="25"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="18" t="s">
+      <c r="C28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="D28" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D28" s="20" t="s">
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="25"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="18" t="s">
+      <c r="C29" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="D29" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="20" t="s">
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E29" s="25"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="18" t="s">
+      <c r="C30" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C30" s="22" t="s">
+      <c r="D30" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D30" s="20" t="s">
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E30" s="25"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="18" t="s">
+      <c r="C31" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C31" s="19" t="s">
+      <c r="D31" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="20" t="s">
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E31" s="25"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="18" t="s">
+      <c r="C32" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="D32" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="D32" s="20" t="s">
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E32" s="25"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="18" t="s">
+      <c r="C33" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="D33" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D33" s="20" t="s">
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="25"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="18" t="s">
+      <c r="C34" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="D34" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="D34" s="20" t="s">
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E34" s="25"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="18" t="s">
+      <c r="C35" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="D35" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D35" s="20" t="s">
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E35" s="24"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="18" t="s">
+      <c r="C36" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C36" s="22" t="s">
+      <c r="D36" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D36" s="20" t="s">
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="E36" s="25"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="18" t="s">
+      <c r="C37" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="D37" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D37" s="20" t="s">
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="E37" s="21"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="18" t="s">
+      <c r="C38" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="D38" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="20" t="s">
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="E38" s="25" t="s">
+      <c r="C39" s="5" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="18" t="s">
+      <c r="D39" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C39" s="22" t="s">
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="C40" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E39" s="24" t="s">
+      <c r="D40" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="18" t="s">
+    <row r="41" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C41" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D41" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="E40" s="21"/>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="18" t="s">
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C42" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D42" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="E41" s="21"/>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="18" t="s">
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B43" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C42" s="22" t="s">
+      <c r="C43" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D43" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="E42" s="21"/>
-    </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="18" t="s">
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C44" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D44" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="E43" s="21"/>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="18" t="s">
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B45" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C44" s="22" t="s">
+      <c r="C45" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D45" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="E44" s="21"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="18" t="s">
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B46" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C45" s="22" t="s">
+      <c r="C46" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D46" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="21"/>
-    </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="18" t="s">
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C47" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D47" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="E46" s="21"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="18" t="s">
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C47" s="22" t="s">
+      <c r="C48" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D48" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="E47" s="21"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="18" t="s">
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C49" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D49" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="E48" s="21"/>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="18" t="s">
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C49" s="19" t="s">
+      <c r="C50" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D50" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="E49" s="21"/>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="18" t="s">
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C51" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D51" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="E50" s="21"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="18" t="s">
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C51" s="22" t="s">
+      <c r="C52" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D52" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="E51" s="21"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="18" t="s">
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C53" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D53" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="E52" s="21"/>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="18" t="s">
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="C53" s="22" t="s">
+      <c r="C54" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D54" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="E53" s="21"/>
-    </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="18" t="s">
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C54" s="22" t="s">
+      <c r="C55" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D55" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="E54" s="21"/>
-    </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="18" t="s">
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C55" s="19" t="s">
+      <c r="C56" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D56" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="E55" s="21"/>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="18" t="s">
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C56" s="22" t="s">
+      <c r="C57" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="D56" s="20" t="s">
+      <c r="D57" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="E56" s="21"/>
-    </row>
-    <row r="57" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B57" s="18" t="s">
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C57" s="22" t="s">
+      <c r="C58" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="D57" s="20" t="s">
+      <c r="D58" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="E57" s="26"/>
-    </row>
-    <row r="58" spans="2:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="18" t="s">
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B59" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C59" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="D58" s="20" t="s">
+      <c r="D59" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="E58" s="21"/>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B59" s="18" t="s">
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B60" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C59" s="22" t="s">
+      <c r="C60" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="D59" s="20" t="s">
+      <c r="D60" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="E59" s="25"/>
-    </row>
-    <row r="60" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B60" s="18" t="s">
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B61" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="22" t="s">
+      <c r="C61" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="D60" s="20" t="s">
+      <c r="D61" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="E60" s="24"/>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B61" s="18" t="s">
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B62" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C61" s="19" t="s">
+      <c r="C62" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="D61" s="20" t="s">
+      <c r="D62" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="E61" s="21"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B62" s="18" t="s">
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C63" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D62" s="20" t="s">
+      <c r="D63" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="E62" s="21"/>
-    </row>
-    <row r="63" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B63" s="18" t="s">
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C63" s="22" t="s">
+      <c r="C64" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="D63" s="20" t="s">
+      <c r="D64" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="E63" s="21"/>
-    </row>
-    <row r="64" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B64" s="18" t="s">
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C65" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="D64" s="20" t="s">
+      <c r="D65" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="E64" s="21"/>
-    </row>
-    <row r="65" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="18" t="s">
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C65" s="22" t="s">
+      <c r="C66" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="D65" s="20" t="s">
+      <c r="D66" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="E65" s="21"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="18" t="s">
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C66" s="22" t="s">
+      <c r="C67" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D66" s="20" t="s">
+      <c r="D67" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="E66" s="21"/>
-    </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="18" t="s">
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="C68" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="D67" s="20" t="s">
+      <c r="D68" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="E67" s="21"/>
-    </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="18" t="s">
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C68" s="22" t="s">
+      <c r="C69" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="D68" s="20" t="s">
+      <c r="D69" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="E68" s="21"/>
-    </row>
-    <row r="69" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="18" t="s">
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B70" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="C70" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="D69" s="20" t="s">
+      <c r="D70" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="E69" s="21"/>
-    </row>
-    <row r="70" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B70" s="18" t="s">
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B71" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C71" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D70" s="20" t="s">
+      <c r="D71" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="E70" s="21"/>
-    </row>
-    <row r="71" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B71" s="18" t="s">
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B72" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C71" s="22" t="s">
+      <c r="C72" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="D71" s="20" t="s">
+      <c r="D72" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="E71" s="21"/>
-    </row>
-    <row r="72" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B72" s="18" t="s">
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B73" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C72" s="22" t="s">
+      <c r="C73" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="D72" s="20" t="s">
+      <c r="D73" s="4" t="s">
         <v>223</v>
       </c>
-      <c r="E72" s="21"/>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="18" t="s">
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="C73" s="19" t="s">
+      <c r="C74" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D73" s="20" t="s">
+      <c r="D74" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E73" s="21"/>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="18" t="s">
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C75" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D74" s="20" t="s">
+      <c r="D75" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="E74" s="21"/>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="18" t="s">
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C75" s="22" t="s">
+      <c r="C76" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="D75" s="20" t="s">
+      <c r="D76" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="E75" s="21"/>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" s="18" t="s">
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C77" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="D76" s="20" t="s">
+      <c r="D77" s="4" t="s">
         <v>235</v>
       </c>
-      <c r="E76" s="21"/>
-    </row>
-    <row r="77" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="18" t="s">
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B78" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C78" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="D77" s="20" t="s">
+      <c r="D78" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="E77" s="25" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B78" s="18" t="s">
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C78" s="20" t="s">
+      <c r="C79" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="D78" s="20" t="s">
+      <c r="D79" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="E78" s="24" t="s">
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B80" s="2" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="18" t="s">
+      <c r="C80" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="D80" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="D79" s="20" t="s">
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B81" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E79" s="21"/>
-    </row>
-    <row r="80" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B80" s="18" t="s">
+      <c r="C81" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="C80" s="20" t="s">
+      <c r="D81" s="4" t="s">
         <v>247</v>
       </c>
-      <c r="D80" s="20" t="s">
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="E80" s="21"/>
-    </row>
-    <row r="81" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B81" s="18" t="s">
+      <c r="C82" s="4" t="s">
         <v>249</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="D82" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D81" s="20" t="s">
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="E81" s="21"/>
-    </row>
-    <row r="82" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="18" t="s">
+      <c r="C83" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="C82" s="20" t="s">
+      <c r="D83" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="D82" s="20" t="s">
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E82" s="21"/>
-    </row>
-    <row r="83" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" s="18" t="s">
+      <c r="C84" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="D84" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="D83" s="20" t="s">
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="E83" s="21"/>
-    </row>
-    <row r="84" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84" s="18" t="s">
+      <c r="C85" s="4" t="s">
         <v>258</v>
       </c>
-      <c r="C84" s="20" t="s">
+      <c r="D85" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="D84" s="20" t="s">
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B86" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="E84" s="25"/>
-    </row>
-    <row r="85" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B85" s="18" t="s">
+      <c r="C86" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="D86" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="D85" s="20" t="s">
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="E85" s="24"/>
-    </row>
-    <row r="86" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B86" s="18" t="s">
+      <c r="C87" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="C86" s="20" t="s">
+      <c r="D87" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="D86" s="20" t="s">
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="E86" s="21"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B87" s="18" t="s">
+      <c r="C88" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="C87" s="20" t="s">
+      <c r="D88" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D87" s="20" t="s">
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="E87" s="21"/>
-    </row>
-    <row r="88" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B88" s="18" t="s">
+      <c r="C89" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="C88" s="20" t="s">
+      <c r="D89" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="D88" s="20" t="s">
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="E88" s="21"/>
-    </row>
-    <row r="89" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B89" s="18" t="s">
+      <c r="C90" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="C89" s="20" t="s">
+      <c r="D90" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="D89" s="20" t="s">
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="E89" s="21"/>
-    </row>
-    <row r="90" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B90" s="18" t="s">
+      <c r="C91" s="4" t="s">
         <v>276</v>
       </c>
-      <c r="C90" s="20" t="s">
+      <c r="D91" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="D90" s="20" t="s">
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="E90" s="21"/>
-    </row>
-    <row r="91" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B91" s="18" t="s">
+      <c r="C92" s="4" t="s">
         <v>279</v>
       </c>
-      <c r="C91" s="20" t="s">
+      <c r="D92" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="D91" s="20" t="s">
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="E91" s="21"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B92" s="18" t="s">
+      <c r="C93" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C92" s="20" t="s">
+      <c r="D93" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="D92" s="20" t="s">
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E92" s="21"/>
-    </row>
-    <row r="93" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B93" s="18" t="s">
+      <c r="C94" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="C93" s="20" t="s">
+      <c r="D94" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="D93" s="20" t="s">
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B95" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="E93" s="21"/>
-    </row>
-    <row r="94" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B94" s="18" t="s">
+      <c r="C95" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="C94" s="20" t="s">
+      <c r="D95" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="D94" s="20" t="s">
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B96" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="E94" s="21"/>
-    </row>
-    <row r="95" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B95" s="18" t="s">
+      <c r="C96" s="4" t="s">
         <v>291</v>
       </c>
-      <c r="C95" s="20" t="s">
+      <c r="D96" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="D95" s="20" t="s">
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B97" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="E95" s="21"/>
-    </row>
-    <row r="96" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B96" s="18" t="s">
+      <c r="C97" s="4" t="s">
         <v>294</v>
       </c>
-      <c r="C96" s="20" t="s">
+      <c r="D97" s="4" t="s">
         <v>295</v>
       </c>
-      <c r="D96" s="20" t="s">
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B98" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E96" s="21"/>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B97" s="18" t="s">
+      <c r="C98" s="4" t="s">
         <v>297</v>
       </c>
-      <c r="C97" s="20" t="s">
+      <c r="D98" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="D97" s="20" t="s">
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B99" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="E97" s="21"/>
-    </row>
-    <row r="98" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B98" s="18" t="s">
+      <c r="C99" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="C98" s="20" t="s">
+      <c r="D99" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="D98" s="20" t="s">
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B100" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="E98" s="26"/>
-    </row>
-    <row r="99" spans="2:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B99" s="18" t="s">
+      <c r="C100" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="C99" s="20" t="s">
+      <c r="D100" s="4" t="s">
         <v>304</v>
       </c>
-      <c r="D99" s="20" t="s">
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B101" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="E99" s="24"/>
-    </row>
-    <row r="100" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B100" s="18" t="s">
+      <c r="C101" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C100" s="20" t="s">
+      <c r="D101" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="D100" s="20" t="s">
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B102" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="E100" s="27"/>
-    </row>
-    <row r="101" spans="2:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B101" s="18" t="s">
+      <c r="C102" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C101" s="20" t="s">
+      <c r="D102" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D101" s="20" t="s">
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B103" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="E101" s="21"/>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B102" s="18" t="s">
+      <c r="C103" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="C102" s="20" t="s">
+      <c r="D103" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="D102" s="20" t="s">
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B104" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E102" s="24"/>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B103" s="18" t="s">
+      <c r="C104" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="C103" s="20" t="s">
+      <c r="D104" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D103" s="20" t="s">
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B105" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="E103" s="21"/>
-    </row>
-    <row r="104" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B104" s="18" t="s">
+      <c r="C105" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="C104" s="20" t="s">
+      <c r="D105" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D104" s="20" t="s">
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B106" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E104" s="21"/>
-    </row>
-    <row r="105" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B105" s="18" t="s">
+      <c r="C106" s="4" t="s">
         <v>321</v>
       </c>
-      <c r="C105" s="20" t="s">
+      <c r="D106" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D105" s="20" t="s">
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B107" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="E105" s="21"/>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B106" s="18" t="s">
+      <c r="C107" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="C106" s="20" t="s">
+      <c r="D107" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="D106" s="20" t="s">
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B108" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="E106" s="21"/>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B107" s="18" t="s">
+      <c r="C108" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="C107" s="20" t="s">
+      <c r="D108" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="D107" s="20" t="s">
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B109" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E107" s="21"/>
-    </row>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B108" s="18" t="s">
+      <c r="C109" s="4" t="s">
         <v>330</v>
       </c>
-      <c r="C108" s="20" t="s">
+      <c r="D109" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="D108" s="20" t="s">
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B110" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="E108" s="21"/>
-    </row>
-    <row r="109" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B109" s="18" t="s">
+      <c r="C110" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="C109" s="20" t="s">
+      <c r="D110" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="D109" s="20" t="s">
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B111" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="E109" s="21"/>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B110" s="18" t="s">
+      <c r="C111" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="C110" s="20" t="s">
+      <c r="D111" s="4" t="s">
         <v>337</v>
       </c>
-      <c r="D110" s="20" t="s">
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B112" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E110" s="21"/>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B111" s="18" t="s">
+      <c r="C112" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="C111" s="20" t="s">
+      <c r="D112" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="D111" s="20" t="s">
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B113" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E111" s="21" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B112" s="18" t="s">
+      <c r="C113" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="C112" s="20" t="s">
+      <c r="D113" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="D112" s="20" t="s">
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B114" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E112" s="24" t="s">
+      <c r="C114" s="4" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B113" s="18" t="s">
+      <c r="D114" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C113" s="20" t="s">
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B115" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="D113" s="20" t="s">
+      <c r="C115" s="4" t="s">
         <v>348</v>
       </c>
-      <c r="E113" s="21"/>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B114" s="18" t="s">
+      <c r="D115" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C114" s="20" t="s">
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B116" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="D114" s="20" t="s">
+      <c r="C116" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="E114" s="21"/>
-    </row>
-    <row r="115" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B115" s="18" t="s">
+      <c r="D116" s="4" t="s">
         <v>352</v>
       </c>
-      <c r="C115" s="20" t="s">
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B117" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="D115" s="20" t="s">
+      <c r="C117" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="E115" s="21"/>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B116" s="18" t="s">
+      <c r="D117" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="C116" s="20" t="s">
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B118" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="D116" s="20" t="s">
+      <c r="C118" s="4" t="s">
         <v>357</v>
       </c>
-      <c r="E116" s="21"/>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B117" s="18" t="s">
+      <c r="D118" s="4" t="s">
         <v>358</v>
       </c>
-      <c r="C117" s="20" t="s">
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B119" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="D117" s="20" t="s">
+      <c r="C119" s="4" t="s">
         <v>360</v>
       </c>
-      <c r="E117" s="21"/>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B118" s="18" t="s">
+      <c r="D119" s="4" t="s">
         <v>361</v>
       </c>
-      <c r="C118" s="20" t="s">
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B120" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="D118" s="20" t="s">
+      <c r="C120" s="4" t="s">
         <v>363</v>
       </c>
-      <c r="E118" s="21"/>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B119" s="18" t="s">
+      <c r="D120" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="C119" s="20" t="s">
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B121" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="D119" s="20" t="s">
+      <c r="C121" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="E119" s="21"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B120" s="18" t="s">
+      <c r="D121" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="C120" s="20" t="s">
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B122" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="D120" s="20" t="s">
+      <c r="C122" s="4" t="s">
         <v>369</v>
       </c>
-      <c r="E120" s="21"/>
-    </row>
-    <row r="121" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B121" s="18" t="s">
+      <c r="D122" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="C121" s="20" t="s">
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="B123" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="D121" s="20" t="s">
+      <c r="C123" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="E121" s="21"/>
-    </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B122" s="18" t="s">
+      <c r="D123" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="C122" s="20" t="s">
+    </row>
+    <row r="124" spans="2:4" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="B124" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="D122" s="20" t="s">
+      <c r="C124" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="E122" s="21"/>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="B123" s="18" t="s">
+      <c r="D124" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="C123" s="20" t="s">
-        <v>377</v>
-      </c>
-      <c r="D123" s="20" t="s">
-        <v>378</v>
-      </c>
-      <c r="E123" s="21"/>
-    </row>
-    <row r="124" spans="2:5" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B124" s="28" t="s">
-        <v>379</v>
-      </c>
-      <c r="C124" s="29" t="s">
-        <v>380</v>
-      </c>
-      <c r="D124" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="E124" s="26"/>
-    </row>
-    <row r="125" spans="2:5" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
+    </row>
+    <row r="125" spans="2:4" ht="14.7" thickTop="1" x14ac:dyDescent="0.55000000000000004"/>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="F11:F12"/>
     <mergeCell ref="G11:G12"/>
-    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="F13:F16"/>
     <mergeCell ref="G13:G16"/>
-    <mergeCell ref="H13:H16"/>
-    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:F6"/>
     <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="F9:F10"/>
     <mergeCell ref="G9:G10"/>
-    <mergeCell ref="H9:H10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
